--- a/config_debug/syslwgp_config.xlsx
+++ b/config_debug/syslwgp_config.xlsx
@@ -96,209 +96,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0,20000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0000, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0,20000,5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0000, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0,20000,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0000, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0,20000,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0000, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0,20000,10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0000, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000</t>
-    </r>
+    <t>0,20000,40000,60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20000,40000,60000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20000,50000,80000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20000,80000,150000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,20000,100000,300000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +451,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -698,7 +512,7 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -715,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -733,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -750,7 +564,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>

--- a/config_debug/syslwgp_config.xlsx
+++ b/config_debug/syslwgp_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -141,7 +141,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
+      <t>0000</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,7 +180,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
+      <t>0000</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -219,7 +219,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
+      <t>0000</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -247,6 +247,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,20000,10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0000, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>40</t>
     </r>
     <r>
@@ -258,7 +297,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>00000</t>
+      <t>0000</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -598,7 +637,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -728,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -745,7 +784,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>2</v>
